--- a/data.xlsx
+++ b/data.xlsx
@@ -22,7 +22,7 @@
     <t>(Thousands)</t>
   </si>
   <si>
-    <t>State/Union Territory</t>
+    <t>States</t>
   </si>
   <si>
     <t>Andaman and Nicobar Islands</t>
@@ -162,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +173,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -242,44 +248,44 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -606,7 +612,7 @@
     <col min="9" max="9" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -630,7 +636,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -643,7 +649,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -670,7 +676,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>3</v>
@@ -697,7 +703,7 @@
         <v>381</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
         <v>4</v>
@@ -724,7 +730,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A7" s="7"/>
       <c r="B7" s="10" t="s">
         <v>5</v>
@@ -751,7 +757,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A8" s="7"/>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -778,7 +784,7 @@
         <v>31206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A9" s="7"/>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -805,7 +811,7 @@
         <v>104099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A10" s="7"/>
       <c r="B10" s="10" t="s">
         <v>9</v>
@@ -832,7 +838,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A11" s="7"/>
       <c r="B11" s="10" t="s">
         <v>10</v>
@@ -859,7 +865,7 @@
         <v>25545</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A12" s="7"/>
       <c r="B12" s="10" t="s">
         <v>11</v>
@@ -886,7 +892,7 @@
         <v>344</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A13" s="7"/>
       <c r="B13" s="10" t="s">
         <v>12</v>
@@ -913,7 +919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A14" s="7"/>
       <c r="B14" s="10" t="s">
         <v>13</v>
@@ -940,7 +946,7 @@
         <v>16788</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A15" s="7"/>
       <c r="B15" s="10" t="s">
         <v>14</v>
@@ -967,7 +973,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A16" s="7"/>
       <c r="B16" s="10" t="s">
         <v>15</v>
@@ -994,7 +1000,7 @@
         <v>60440</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A17" s="7"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1021,7 +1027,7 @@
         <v>25351</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A18" s="7"/>
       <c r="B18" s="10" t="s">
         <v>17</v>
@@ -1048,7 +1054,7 @@
         <v>6865</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A19" s="7"/>
       <c r="B19" s="10" t="s">
         <v>18</v>
@@ -1075,7 +1081,7 @@
         <v>12541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A20" s="7"/>
       <c r="B20" s="10" t="s">
         <v>19</v>
@@ -1102,7 +1108,7 @@
         <v>32988</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A21" s="7"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
